--- a/MonitoringSystem_PCB/MonitoringSystem_PCB_BOM.xlsx
+++ b/MonitoringSystem_PCB/MonitoringSystem_PCB_BOM.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\HouseholdWaterMonitoringSystem\MonitoringSystem_PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A2381D-C5F1-45F1-988E-24EED6A08658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616F94E3-58A9-4156-A015-EB574F1AA109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4168587B-0B8A-47C9-BC6A-F431FB1CBAE7}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{4168587B-0B8A-47C9-BC6A-F431FB1CBAE7}"/>
   </bookViews>
   <sheets>
     <sheet name="MonitoringSystem_PCB_BOM (versi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1210,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59623E36-CC1F-4FEA-932A-C76824A08430}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="H2">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1291,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
